--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,17 +616,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-15,88</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,88</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,88%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,73</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,88; 7,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,88; 7,4</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,15%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; 8,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; 8,32</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 7,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 10,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 7,84</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 12,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 8,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 12,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 8,51</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 13,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 15,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 13,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 15,34</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 17,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 18,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 17,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 18,13</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,84</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 20,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 19,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,19; 20,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 19,47</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,45%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 26,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 25,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 26,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 25,1</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,88</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,88</t>
+          <t>-7,68</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-24,16; 4,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-24,16; 4,76</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,88%</t>
+          <t>-8,13%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-24,49; 5,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-24,49; 5,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,7</t>
+          <t>-1,77; 10,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 7,4</t>
+          <t>-5,24; 7,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,7</t>
+          <t>-1,77; 10,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 7,4</t>
+          <t>-5,24; 7,84</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,5</t>
+          <t>-1,71; 12,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 8,32</t>
+          <t>-5,38; 8,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,5</t>
+          <t>-1,71; 12,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 8,32</t>
+          <t>-5,38; 8,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>6,49</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,88</t>
+          <t>-2,21; 13,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,84</t>
+          <t>2,06; 15,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,88</t>
+          <t>-2,21; 13,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,84</t>
+          <t>2,06; 15,34</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 12,37</t>
+          <t>-2,17; 17,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,51</t>
+          <t>2,11; 18,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 12,37</t>
+          <t>-2,17; 17,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,51</t>
+          <t>2,11; 18,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>9,84</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 13,21</t>
+          <t>4,19; 20,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,34</t>
+          <t>-0,44; 19,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 13,21</t>
+          <t>4,19; 20,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,34</t>
+          <t>-0,44; 19,47</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>11,45%</t>
         </is>
       </c>
     </row>
@@ -1193,29 +1193,29 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 17,66</t>
+          <t>4,75; 26,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,13</t>
+          <t>-0,29; 25,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 17,66</t>
+          <t>4,75; 26,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,13</t>
+          <t>-0,29; 25,1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1235,22 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>4,18</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,65</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 19,47</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,65</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 19,47</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1349,190 +1349,34 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,75; 26,65</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 25,1</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,75; 26,65</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 25,1</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 10,98</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 9,19</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 10,98</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 9,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 12,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 10,35</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 12,67</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 10,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Habitat-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,15</t>
+          <t>0,0; 19,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 4,76</t>
+          <t>-23,73; 4,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,15</t>
+          <t>0,0; 19,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 4,76</t>
+          <t>-23,73; 4,57</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,71</t>
+          <t>0,0; 24,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 5,19</t>
+          <t>-24,78; 5,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,71</t>
+          <t>0,0; 24,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 5,19</t>
+          <t>-24,78; 5,11</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,88</t>
+          <t>-2,12; 9,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,84</t>
+          <t>-6,84; 7,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,88</t>
+          <t>-2,12; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,84</t>
+          <t>-6,84; 7,79</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 12,37</t>
+          <t>-2,2; 11,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,51</t>
+          <t>-6,93; 8,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 12,37</t>
+          <t>-2,2; 11,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,51</t>
+          <t>-6,93; 8,45</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 13,21</t>
+          <t>-2,15; 15,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,34</t>
+          <t>2,11; 19,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 13,21</t>
+          <t>-2,15; 15,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,34</t>
+          <t>2,11; 19,37</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 17,66</t>
+          <t>-2,19; 18,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,13</t>
+          <t>2,16; 24,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 17,66</t>
+          <t>-2,19; 18,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,13</t>
+          <t>2,16; 24,02</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,65</t>
+          <t>3,66; 20,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 19,47</t>
+          <t>-0,44; 19,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,65</t>
+          <t>3,66; 20,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 19,47</t>
+          <t>-0,44; 19,15</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 26,65</t>
+          <t>4,15; 25,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 25,1</t>
+          <t>-0,3; 24,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 26,65</t>
+          <t>4,15; 25,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 25,1</t>
+          <t>-0,3; 24,76</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
     </row>
